--- a/Lab Craters/Combined Results/errors - calculations.xlsx
+++ b/Lab Craters/Combined Results/errors - calculations.xlsx
@@ -1,21 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ibansal2\Desktop\PSI git\git\Lab Craters\Combined Results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ishaa\Desktop\Crater-Analysis\Lab Craters\Combined Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{02EF2741-85FB-4FB7-8E80-4D6AB7A8B33F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4546617F-518D-4BC5-B3FD-B4C2E2083B16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="errors - Copy" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -139,10 +152,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="167" formatCode="0.0"/>
-    <numFmt numFmtId="168" formatCode="0.E+00"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.E+00"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -623,8 +636,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -979,20 +992,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B27" workbookViewId="0">
-      <selection activeCell="L33" sqref="L33:O52"/>
+    <sheetView tabSelected="1" topLeftCell="B30" workbookViewId="0">
+      <selection activeCell="M33" sqref="M33:M52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="47.5703125" customWidth="1"/>
-    <col min="11" max="11" width="7.140625" customWidth="1"/>
+    <col min="2" max="2" width="47.5546875" customWidth="1"/>
+    <col min="11" max="11" width="7.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1012,7 +1025,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1045,7 +1058,7 @@
         <v>0.70309199554889645</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1078,7 +1091,7 @@
         <v>0.70001846502134513</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1111,7 +1124,7 @@
         <v>0.70003620567985592</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1144,7 +1157,7 @@
         <v>0.70059709441005324</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1177,7 +1190,7 @@
         <v>0.70001799375474005</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1210,7 +1223,7 @@
         <v>0.70036328753329113</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1243,7 +1256,7 @@
         <v>0.70095370892445541</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1276,7 +1289,7 @@
         <v>0.71423964712051113</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1309,7 +1322,7 @@
         <v>0.70169334760224633</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1342,7 +1355,7 @@
         <v>0.70438967664941121</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1375,7 +1388,7 @@
         <v>0.70002448332544598</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1408,7 +1421,7 @@
         <v>0.70000322524355663</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1441,7 +1454,7 @@
         <v>0.70033593852741505</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1474,7 +1487,7 @@
         <v>0.70032564247363416</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1507,7 +1520,7 @@
         <v>0.70004532609159231</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1540,7 +1553,7 @@
         <v>0.70001420727834218</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1573,7 +1586,7 @@
         <v>0.70118553691835472</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1606,7 +1619,7 @@
         <v>0.70000691748251342</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1639,7 +1652,7 @@
         <v>0.70001743945338912</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1672,7 +1685,7 @@
         <v>0.70003415203819153</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1705,7 +1718,7 @@
         <v>0.70001005142278405</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1738,7 +1751,7 @@
         <v>0.70003418815371121</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1771,7 +1784,7 @@
         <v>0.7000128325401318</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1804,7 +1817,7 @@
         <v>0.70100379228682874</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1837,7 +1850,7 @@
         <v>0.70119256494912441</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1870,7 +1883,7 @@
         <v>0.70238755449991452</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
@@ -1903,7 +1916,7 @@
         <v>0.70007536324846742</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
@@ -1936,19 +1949,19 @@
         <v>0.78387340319549925</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>0</v>
       </c>
@@ -1980,7 +1993,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>18</v>
       </c>
@@ -2009,11 +2022,11 @@
         <v>2.1354285427251499E-2</v>
       </c>
       <c r="L33" s="2">
-        <f>SQRT(POWER(G33,2)+POWER(0.7,2))</f>
+        <f t="shared" ref="L33:L52" si="3">SQRT(POWER(G33,2)+POWER(0.7,2))</f>
         <v>0.70032564247363416</v>
       </c>
       <c r="M33" s="2">
-        <f>SQRT(POWER(H33,2)+POWER(2*0.7,2))</f>
+        <f t="shared" ref="M33:M52" si="4">SQRT(POWER(H33,2)+POWER(2*0.7,2))</f>
         <v>1.6526104556572483</v>
       </c>
       <c r="N33" s="2">
@@ -2021,11 +2034,11 @@
         <v>28137.325943989545</v>
       </c>
       <c r="O33" s="2">
-        <f>SQRT(POWER(J33,2)+POWER(0.7,2))</f>
+        <f t="shared" ref="O33:O48" si="5">SQRT(POWER(J33,2)+POWER(0.7,2))</f>
         <v>0.70032564247363416</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>22</v>
       </c>
@@ -2054,23 +2067,23 @@
         <v>3.11199668546585E-3</v>
       </c>
       <c r="L34" s="2">
-        <f>SQRT(POWER(G34,2)+POWER(0.7,2))</f>
+        <f t="shared" si="3"/>
         <v>0.70000691748251342</v>
       </c>
       <c r="M34" s="2">
-        <f>SQRT(POWER(H34,2)+POWER(2*0.7,2))</f>
+        <f t="shared" si="4"/>
         <v>1.6875019067167409</v>
       </c>
       <c r="N34" s="2">
-        <f t="shared" ref="N34:N52" si="3">SQRT(POWER(I34,2)+POWER(I55,2))</f>
+        <f t="shared" ref="N34:N52" si="6">SQRT(POWER(I34,2)+POWER(I55,2))</f>
         <v>21299.427471590963</v>
       </c>
       <c r="O34" s="2">
-        <f>SQRT(POWER(J34,2)+POWER(0.7,2))</f>
+        <f t="shared" si="5"/>
         <v>0.70000691748251342</v>
       </c>
     </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>23</v>
       </c>
@@ -2099,23 +2112,23 @@
         <v>4.9412082408415003E-3</v>
       </c>
       <c r="L35" s="2">
-        <f>SQRT(POWER(G35,2)+POWER(0.7,2))</f>
+        <f t="shared" si="3"/>
         <v>0.70001743945338912</v>
       </c>
       <c r="M35" s="2">
-        <f>SQRT(POWER(H35,2)+POWER(2*0.7,2))</f>
+        <f t="shared" si="4"/>
         <v>1.6823940440470024</v>
       </c>
       <c r="N35" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>18219.853101184719</v>
       </c>
       <c r="O35" s="2">
-        <f>SQRT(POWER(J35,2)+POWER(0.7,2))</f>
+        <f t="shared" si="5"/>
         <v>0.70001743945338912</v>
       </c>
     </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>24</v>
       </c>
@@ -2144,23 +2157,23 @@
         <v>6.9147682412308504E-3</v>
       </c>
       <c r="L36" s="2">
-        <f>SQRT(POWER(G36,2)+POWER(0.7,2))</f>
+        <f t="shared" si="3"/>
         <v>0.70003415203819153</v>
       </c>
       <c r="M36" s="2">
-        <f>SQRT(POWER(H36,2)+POWER(2*0.7,2))</f>
+        <f t="shared" si="4"/>
         <v>1.651767960186187</v>
       </c>
       <c r="N36" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>30583.866026686108</v>
       </c>
       <c r="O36" s="2">
-        <f>SQRT(POWER(J36,2)+POWER(0.7,2))</f>
+        <f t="shared" si="5"/>
         <v>0.70003415203819153</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>25</v>
       </c>
@@ -2189,23 +2202,23 @@
         <v>3.7512788391171501E-3</v>
       </c>
       <c r="L37" s="2">
-        <f>SQRT(POWER(G37,2)+POWER(0.7,2))</f>
+        <f t="shared" si="3"/>
         <v>0.70001005142278405</v>
       </c>
       <c r="M37" s="2">
-        <f>SQRT(POWER(H37,2)+POWER(2*0.7,2))</f>
+        <f t="shared" si="4"/>
         <v>1.6874049990047428</v>
       </c>
       <c r="N37" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>29600.307711304853</v>
       </c>
       <c r="O37" s="2">
-        <f>SQRT(POWER(J37,2)+POWER(0.7,2))</f>
+        <f t="shared" si="5"/>
         <v>0.70001005142278405</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>26</v>
       </c>
@@ -2234,23 +2247,23 @@
         <v>6.9184235216967101E-3</v>
       </c>
       <c r="L38" s="2">
-        <f>SQRT(POWER(G38,2)+POWER(0.7,2))</f>
+        <f t="shared" si="3"/>
         <v>0.70003418815371121</v>
       </c>
       <c r="M38" s="2">
-        <f>SQRT(POWER(H38,2)+POWER(2*0.7,2))</f>
+        <f t="shared" si="4"/>
         <v>1.6788506635338238</v>
       </c>
       <c r="N38" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>23729.998804467989</v>
       </c>
       <c r="O38" s="2">
-        <f>SQRT(POWER(J38,2)+POWER(0.7,2))</f>
+        <f t="shared" si="5"/>
         <v>0.70003418815371121</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>27</v>
       </c>
@@ -2279,23 +2292,23 @@
         <v>4.2385989263663999E-3</v>
       </c>
       <c r="L39" s="2">
-        <f>SQRT(POWER(G39,2)+POWER(0.7,2))</f>
+        <f t="shared" si="3"/>
         <v>0.7000128325401318</v>
       </c>
       <c r="M39" s="2">
-        <f>SQRT(POWER(H39,2)+POWER(2*0.7,2))</f>
+        <f t="shared" si="4"/>
         <v>1.6873296459614051</v>
       </c>
       <c r="N39" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>35186.839781717477</v>
       </c>
       <c r="O39" s="2">
-        <f>SQRT(POWER(J39,2)+POWER(0.7,2))</f>
+        <f t="shared" si="5"/>
         <v>0.7000128325401318</v>
       </c>
     </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>28</v>
       </c>
@@ -2324,23 +2337,23 @@
         <v>3.7500890662961202E-2</v>
       </c>
       <c r="L40" s="2">
-        <f>SQRT(POWER(G40,2)+POWER(0.7,2))</f>
+        <f t="shared" si="3"/>
         <v>0.70100379228682874</v>
       </c>
       <c r="M40" s="2">
-        <f>SQRT(POWER(H40,2)+POWER(2*0.7,2))</f>
+        <f t="shared" si="4"/>
         <v>1.6316850180978528</v>
       </c>
       <c r="N40" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>28750.140328625075</v>
       </c>
       <c r="O40" s="2">
-        <f>SQRT(POWER(J40,2)+POWER(0.7,2))</f>
+        <f t="shared" si="5"/>
         <v>0.70100379228682874</v>
       </c>
     </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>29</v>
       </c>
@@ -2369,23 +2382,23 @@
         <v>4.0878027593465399E-2</v>
       </c>
       <c r="L41" s="2">
-        <f>SQRT(POWER(G41,2)+POWER(0.7,2))</f>
+        <f t="shared" si="3"/>
         <v>0.70119256494912441</v>
       </c>
       <c r="M41" s="2">
-        <f>SQRT(POWER(H41,2)+POWER(2*0.7,2))</f>
+        <f t="shared" si="4"/>
         <v>1.6274729352099881</v>
       </c>
       <c r="N41" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>28614.327384202323</v>
       </c>
       <c r="O41" s="2">
-        <f>SQRT(POWER(J41,2)+POWER(0.7,2))</f>
+        <f t="shared" si="5"/>
         <v>0.70119256494912441</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>19</v>
       </c>
@@ -2414,23 +2427,23 @@
         <v>7.9660895478164892E-3</v>
       </c>
       <c r="L42" s="2">
-        <f>SQRT(POWER(G42,2)+POWER(0.7,2))</f>
+        <f t="shared" si="3"/>
         <v>0.70004532609159231</v>
       </c>
       <c r="M42" s="2">
-        <f>SQRT(POWER(H42,2)+POWER(2*0.7,2))</f>
+        <f t="shared" si="4"/>
         <v>1.6799904243452848</v>
       </c>
       <c r="N42" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>22109.324950686907</v>
       </c>
       <c r="O42" s="2">
-        <f>SQRT(POWER(J42,2)+POWER(0.7,2))</f>
+        <f t="shared" si="5"/>
         <v>0.70004532609159231</v>
       </c>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
         <v>20</v>
       </c>
@@ -2459,23 +2472,23 @@
         <v>4.45986451877567E-3</v>
       </c>
       <c r="L43" s="2">
-        <f>SQRT(POWER(G43,2)+POWER(0.7,2))</f>
+        <f t="shared" si="3"/>
         <v>0.70001420727834218</v>
       </c>
       <c r="M43" s="2">
-        <f>SQRT(POWER(H43,2)+POWER(2*0.7,2))</f>
+        <f t="shared" si="4"/>
         <v>1.6872933834765962</v>
       </c>
       <c r="N43" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>22425.756330114946</v>
       </c>
       <c r="O43" s="2">
-        <f>SQRT(POWER(J43,2)+POWER(0.7,2))</f>
+        <f t="shared" si="5"/>
         <v>0.70001420727834218</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
         <v>21</v>
       </c>
@@ -2504,23 +2517,23 @@
         <v>4.07572960766708E-2</v>
       </c>
       <c r="L44" s="2">
-        <f>SQRT(POWER(G44,2)+POWER(0.7,2))</f>
+        <f t="shared" si="3"/>
         <v>0.70118553691835472</v>
       </c>
       <c r="M44" s="2">
-        <f>SQRT(POWER(H44,2)+POWER(2*0.7,2))</f>
+        <f t="shared" si="4"/>
         <v>1.6291535584816541</v>
       </c>
       <c r="N44" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>30161.867641507502</v>
       </c>
       <c r="O44" s="2">
-        <f>SQRT(POWER(J44,2)+POWER(0.7,2))</f>
+        <f t="shared" si="5"/>
         <v>0.70118553691835472</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
         <v>9</v>
       </c>
@@ -2549,23 +2562,23 @@
         <v>5.0191214780484798E-3</v>
       </c>
       <c r="L45" s="2">
-        <f>SQRT(POWER(G45,2)+POWER(0.7,2))</f>
+        <f t="shared" si="3"/>
         <v>0.70001799375474005</v>
       </c>
       <c r="M45" s="2">
-        <f>SQRT(POWER(H45,2)+POWER(2*0.7,2))</f>
+        <f t="shared" si="4"/>
         <v>1.6660040390195527</v>
       </c>
       <c r="N45" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>35179.427493190058</v>
       </c>
       <c r="O45" s="2">
-        <f>SQRT(POWER(J45,2)+POWER(0.7,2))</f>
+        <f t="shared" si="5"/>
         <v>0.70001799375474005</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
         <v>8</v>
       </c>
@@ -2594,23 +2607,23 @@
         <v>2.8918656535342199E-2</v>
       </c>
       <c r="L46" s="2">
-        <f>SQRT(POWER(G46,2)+POWER(0.7,2))</f>
+        <f t="shared" si="3"/>
         <v>0.70059709441005324</v>
       </c>
       <c r="M46" s="2">
-        <f>SQRT(POWER(H46,2)+POWER(2*0.7,2))</f>
+        <f t="shared" si="4"/>
         <v>1.6395394490467985</v>
       </c>
       <c r="N46" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>27680.057792089181</v>
       </c>
       <c r="O46" s="2">
-        <f>SQRT(POWER(J46,2)+POWER(0.7,2))</f>
+        <f t="shared" si="5"/>
         <v>0.70059709441005324</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
         <v>11</v>
       </c>
@@ -2639,23 +2652,23 @@
         <v>3.65527297879404E-2</v>
       </c>
       <c r="L47" s="2">
-        <f>SQRT(POWER(G47,2)+POWER(0.7,2))</f>
+        <f t="shared" si="3"/>
         <v>0.70095370892445541</v>
       </c>
       <c r="M47" s="2">
-        <f>SQRT(POWER(H47,2)+POWER(2*0.7,2))</f>
+        <f t="shared" si="4"/>
         <v>1.6027686884454651</v>
       </c>
       <c r="N47" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>47654.327182158835</v>
       </c>
       <c r="O47" s="2">
-        <f>SQRT(POWER(J47,2)+POWER(0.7,2))</f>
+        <f t="shared" si="5"/>
         <v>0.70095370892445541</v>
       </c>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
         <v>10</v>
       </c>
@@ -2684,23 +2697,23 @@
         <v>2.2555144079334701E-2</v>
       </c>
       <c r="L48" s="2">
-        <f>SQRT(POWER(G48,2)+POWER(0.7,2))</f>
+        <f t="shared" si="3"/>
         <v>0.70036328753329113</v>
       </c>
       <c r="M48" s="2">
-        <f>SQRT(POWER(H48,2)+POWER(2*0.7,2))</f>
+        <f t="shared" si="4"/>
         <v>1.6492645398204602</v>
       </c>
       <c r="N48" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>25964.745861451342</v>
       </c>
       <c r="O48" s="2">
-        <f>SQRT(POWER(J48,2)+POWER(0.7,2))</f>
+        <f t="shared" si="5"/>
         <v>0.70036328753329113</v>
       </c>
     </row>
-    <row r="49" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
         <v>15</v>
       </c>
@@ -2729,15 +2742,15 @@
         <v>5.8546780490175499E-3</v>
       </c>
       <c r="L49" s="2">
-        <f>SQRT(POWER(G49,2)+POWER(0.7,2))</f>
+        <f t="shared" si="3"/>
         <v>0.70002448332544598</v>
       </c>
       <c r="M49" s="2">
-        <f>SQRT(POWER(H49,2)+POWER(2*0.7,2))</f>
+        <f t="shared" si="4"/>
         <v>1.6871761174215596</v>
       </c>
       <c r="N49" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>17187.836446013789</v>
       </c>
       <c r="O49" s="2">
@@ -2745,7 +2758,7 @@
         <v>0.71423964712051113</v>
       </c>
     </row>
-    <row r="50" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
         <v>14</v>
       </c>
@@ -2774,15 +2787,15 @@
         <v>7.8516345879454205E-2</v>
       </c>
       <c r="L50" s="2">
-        <f>SQRT(POWER(G50,2)+POWER(0.7,2))</f>
+        <f t="shared" si="3"/>
         <v>0.70438967664941121</v>
       </c>
       <c r="M50" s="2">
-        <f>SQRT(POWER(H50,2)+POWER(2*0.7,2))</f>
+        <f t="shared" si="4"/>
         <v>1.62181632155064</v>
       </c>
       <c r="N50" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3619.5984906510221</v>
       </c>
       <c r="O50" s="2">
@@ -2790,7 +2803,7 @@
         <v>0.70169334760224633</v>
       </c>
     </row>
-    <row r="51" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
         <v>12</v>
       </c>
@@ -2819,15 +2832,15 @@
         <v>0.14190938488638599</v>
       </c>
       <c r="L51" s="2">
-        <f>SQRT(POWER(G51,2)+POWER(0.7,2))</f>
+        <f t="shared" si="3"/>
         <v>0.71423964712051113</v>
       </c>
       <c r="M51" s="2">
-        <f>SQRT(POWER(H51,2)+POWER(2*0.7,2))</f>
+        <f t="shared" si="4"/>
         <v>1.4801447039893896</v>
       </c>
       <c r="N51" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>383.04246983062035</v>
       </c>
       <c r="O51" s="2">
@@ -2835,7 +2848,7 @@
         <v>0.70438967664941121</v>
       </c>
     </row>
-    <row r="52" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
         <v>13</v>
       </c>
@@ -2864,15 +2877,15 @@
         <v>4.8719134528919801E-2</v>
       </c>
       <c r="L52" s="2">
-        <f>SQRT(POWER(G52,2)+POWER(0.7,2))</f>
+        <f t="shared" si="3"/>
         <v>0.70169334760224633</v>
       </c>
       <c r="M52" s="2">
-        <f>SQRT(POWER(H52,2)+POWER(2*0.7,2))</f>
+        <f t="shared" si="4"/>
         <v>1.6186502658816508</v>
       </c>
       <c r="N52" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>28504.218645483732</v>
       </c>
       <c r="O52" s="2">
@@ -2880,13 +2893,13 @@
         <v>0.70002448332544598</v>
       </c>
     </row>
-    <row r="53" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:15" x14ac:dyDescent="0.3">
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
       <c r="K53" s="2"/>
     </row>
-    <row r="54" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:15" x14ac:dyDescent="0.3">
       <c r="H54" s="2"/>
       <c r="I54" s="2">
         <f>E33*3*0.7/C33</f>
@@ -2895,121 +2908,121 @@
       <c r="J54" s="2"/>
       <c r="K54" s="2"/>
     </row>
-    <row r="55" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:15" x14ac:dyDescent="0.3">
       <c r="I55" s="2">
-        <f t="shared" ref="I55:I74" si="4">E34*3*0.7/C34</f>
+        <f t="shared" ref="I55:I72" si="7">E34*3*0.7/C34</f>
         <v>21297.693157295998</v>
       </c>
     </row>
-    <row r="56" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:15" x14ac:dyDescent="0.3">
       <c r="I56" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>18216.159129692285</v>
       </c>
     </row>
-    <row r="57" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:15" x14ac:dyDescent="0.3">
       <c r="I57" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>30582.158417739884</v>
       </c>
     </row>
-    <row r="58" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:15" x14ac:dyDescent="0.3">
       <c r="I58" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>29598.730556397397</v>
       </c>
     </row>
-    <row r="59" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:15" x14ac:dyDescent="0.3">
       <c r="I59" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>23725.133125310771</v>
       </c>
     </row>
-    <row r="60" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:15" x14ac:dyDescent="0.3">
       <c r="I60" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>35185.321160380285</v>
       </c>
     </row>
-    <row r="61" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:15" x14ac:dyDescent="0.3">
       <c r="I61" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>28711.16319678706</v>
       </c>
     </row>
-    <row r="62" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:15" x14ac:dyDescent="0.3">
       <c r="I62" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>28571.536664970772</v>
       </c>
     </row>
-    <row r="63" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:15" x14ac:dyDescent="0.3">
       <c r="I63" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>22106.254336155704</v>
       </c>
     </row>
-    <row r="64" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:15" x14ac:dyDescent="0.3">
       <c r="I64" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>22423.319870457519</v>
       </c>
     </row>
-    <row r="65" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I65" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>30120.662875982758</v>
       </c>
     </row>
-    <row r="66" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I66" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>35178.051305465568</v>
       </c>
     </row>
-    <row r="67" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I67" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>27649.917905080052</v>
       </c>
     </row>
-    <row r="68" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I68" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>47641.177759274011</v>
       </c>
     </row>
-    <row r="69" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I69" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>25940.051730847994</v>
       </c>
     </row>
-    <row r="70" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I70" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>17184.396645790537</v>
       </c>
     </row>
-    <row r="71" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I71" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>3605.07200738762</v>
       </c>
     </row>
-    <row r="72" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I72" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>367.87527986286398</v>
       </c>
     </row>
-    <row r="73" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I73" s="2">
         <f>E52*3*0.7/C52</f>
         <v>28451.702475049242</v>
       </c>
     </row>
-    <row r="74" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I74" s="2"/>
     </row>
   </sheetData>

--- a/Lab Craters/Combined Results/errors - calculations.xlsx
+++ b/Lab Craters/Combined Results/errors - calculations.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ishaa\Desktop\Crater-Analysis\Lab Craters\Combined Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4546617F-518D-4BC5-B3FD-B4C2E2083B16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{114149F9-B826-4615-AE8B-22EC9D82CD7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -995,8 +995,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B30" workbookViewId="0">
-      <selection activeCell="M33" sqref="M33:M52"/>
+    <sheetView tabSelected="1" topLeftCell="B46" zoomScale="119" workbookViewId="0">
+      <selection activeCell="I56" sqref="I56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Lab Craters/Combined Results/errors - calculations.xlsx
+++ b/Lab Craters/Combined Results/errors - calculations.xlsx
@@ -1,21 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ibansal2\Desktop\PSI git\git\Lab Craters\Combined Results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ishaa\Desktop\Crater-Analysis\Lab Craters\Combined Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{02EF2741-85FB-4FB7-8E80-4D6AB7A8B33F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{114149F9-B826-4615-AE8B-22EC9D82CD7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="errors - Copy" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -139,10 +152,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="167" formatCode="0.0"/>
-    <numFmt numFmtId="168" formatCode="0.E+00"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.E+00"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -623,8 +636,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -979,20 +992,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B27" workbookViewId="0">
-      <selection activeCell="L33" sqref="L33:O52"/>
+    <sheetView tabSelected="1" topLeftCell="B46" zoomScale="119" workbookViewId="0">
+      <selection activeCell="I56" sqref="I56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="47.5703125" customWidth="1"/>
-    <col min="11" max="11" width="7.140625" customWidth="1"/>
+    <col min="2" max="2" width="47.5546875" customWidth="1"/>
+    <col min="11" max="11" width="7.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1012,7 +1025,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1045,7 +1058,7 @@
         <v>0.70309199554889645</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1078,7 +1091,7 @@
         <v>0.70001846502134513</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1111,7 +1124,7 @@
         <v>0.70003620567985592</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1144,7 +1157,7 @@
         <v>0.70059709441005324</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1177,7 +1190,7 @@
         <v>0.70001799375474005</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1210,7 +1223,7 @@
         <v>0.70036328753329113</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1243,7 +1256,7 @@
         <v>0.70095370892445541</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1276,7 +1289,7 @@
         <v>0.71423964712051113</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1309,7 +1322,7 @@
         <v>0.70169334760224633</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1342,7 +1355,7 @@
         <v>0.70438967664941121</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1375,7 +1388,7 @@
         <v>0.70002448332544598</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1408,7 +1421,7 @@
         <v>0.70000322524355663</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1441,7 +1454,7 @@
         <v>0.70033593852741505</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1474,7 +1487,7 @@
         <v>0.70032564247363416</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1507,7 +1520,7 @@
         <v>0.70004532609159231</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1540,7 +1553,7 @@
         <v>0.70001420727834218</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1573,7 +1586,7 @@
         <v>0.70118553691835472</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1606,7 +1619,7 @@
         <v>0.70000691748251342</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1639,7 +1652,7 @@
         <v>0.70001743945338912</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1672,7 +1685,7 @@
         <v>0.70003415203819153</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1705,7 +1718,7 @@
         <v>0.70001005142278405</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1738,7 +1751,7 @@
         <v>0.70003418815371121</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1771,7 +1784,7 @@
         <v>0.7000128325401318</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1804,7 +1817,7 @@
         <v>0.70100379228682874</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1837,7 +1850,7 @@
         <v>0.70119256494912441</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1870,7 +1883,7 @@
         <v>0.70238755449991452</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
@@ -1903,7 +1916,7 @@
         <v>0.70007536324846742</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
@@ -1936,19 +1949,19 @@
         <v>0.78387340319549925</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>0</v>
       </c>
@@ -1980,7 +1993,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>18</v>
       </c>
@@ -2009,11 +2022,11 @@
         <v>2.1354285427251499E-2</v>
       </c>
       <c r="L33" s="2">
-        <f>SQRT(POWER(G33,2)+POWER(0.7,2))</f>
+        <f t="shared" ref="L33:L52" si="3">SQRT(POWER(G33,2)+POWER(0.7,2))</f>
         <v>0.70032564247363416</v>
       </c>
       <c r="M33" s="2">
-        <f>SQRT(POWER(H33,2)+POWER(2*0.7,2))</f>
+        <f t="shared" ref="M33:M52" si="4">SQRT(POWER(H33,2)+POWER(2*0.7,2))</f>
         <v>1.6526104556572483</v>
       </c>
       <c r="N33" s="2">
@@ -2021,11 +2034,11 @@
         <v>28137.325943989545</v>
       </c>
       <c r="O33" s="2">
-        <f>SQRT(POWER(J33,2)+POWER(0.7,2))</f>
+        <f t="shared" ref="O33:O48" si="5">SQRT(POWER(J33,2)+POWER(0.7,2))</f>
         <v>0.70032564247363416</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>22</v>
       </c>
@@ -2054,23 +2067,23 @@
         <v>3.11199668546585E-3</v>
       </c>
       <c r="L34" s="2">
-        <f>SQRT(POWER(G34,2)+POWER(0.7,2))</f>
+        <f t="shared" si="3"/>
         <v>0.70000691748251342</v>
       </c>
       <c r="M34" s="2">
-        <f>SQRT(POWER(H34,2)+POWER(2*0.7,2))</f>
+        <f t="shared" si="4"/>
         <v>1.6875019067167409</v>
       </c>
       <c r="N34" s="2">
-        <f t="shared" ref="N34:N52" si="3">SQRT(POWER(I34,2)+POWER(I55,2))</f>
+        <f t="shared" ref="N34:N52" si="6">SQRT(POWER(I34,2)+POWER(I55,2))</f>
         <v>21299.427471590963</v>
       </c>
       <c r="O34" s="2">
-        <f>SQRT(POWER(J34,2)+POWER(0.7,2))</f>
+        <f t="shared" si="5"/>
         <v>0.70000691748251342</v>
       </c>
     </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>23</v>
       </c>
@@ -2099,23 +2112,23 @@
         <v>4.9412082408415003E-3</v>
       </c>
       <c r="L35" s="2">
-        <f>SQRT(POWER(G35,2)+POWER(0.7,2))</f>
+        <f t="shared" si="3"/>
         <v>0.70001743945338912</v>
       </c>
       <c r="M35" s="2">
-        <f>SQRT(POWER(H35,2)+POWER(2*0.7,2))</f>
+        <f t="shared" si="4"/>
         <v>1.6823940440470024</v>
       </c>
       <c r="N35" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>18219.853101184719</v>
       </c>
       <c r="O35" s="2">
-        <f>SQRT(POWER(J35,2)+POWER(0.7,2))</f>
+        <f t="shared" si="5"/>
         <v>0.70001743945338912</v>
       </c>
     </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>24</v>
       </c>
@@ -2144,23 +2157,23 @@
         <v>6.9147682412308504E-3</v>
       </c>
       <c r="L36" s="2">
-        <f>SQRT(POWER(G36,2)+POWER(0.7,2))</f>
+        <f t="shared" si="3"/>
         <v>0.70003415203819153</v>
       </c>
       <c r="M36" s="2">
-        <f>SQRT(POWER(H36,2)+POWER(2*0.7,2))</f>
+        <f t="shared" si="4"/>
         <v>1.651767960186187</v>
       </c>
       <c r="N36" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>30583.866026686108</v>
       </c>
       <c r="O36" s="2">
-        <f>SQRT(POWER(J36,2)+POWER(0.7,2))</f>
+        <f t="shared" si="5"/>
         <v>0.70003415203819153</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>25</v>
       </c>
@@ -2189,23 +2202,23 @@
         <v>3.7512788391171501E-3</v>
       </c>
       <c r="L37" s="2">
-        <f>SQRT(POWER(G37,2)+POWER(0.7,2))</f>
+        <f t="shared" si="3"/>
         <v>0.70001005142278405</v>
       </c>
       <c r="M37" s="2">
-        <f>SQRT(POWER(H37,2)+POWER(2*0.7,2))</f>
+        <f t="shared" si="4"/>
         <v>1.6874049990047428</v>
       </c>
       <c r="N37" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>29600.307711304853</v>
       </c>
       <c r="O37" s="2">
-        <f>SQRT(POWER(J37,2)+POWER(0.7,2))</f>
+        <f t="shared" si="5"/>
         <v>0.70001005142278405</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>26</v>
       </c>
@@ -2234,23 +2247,23 @@
         <v>6.9184235216967101E-3</v>
       </c>
       <c r="L38" s="2">
-        <f>SQRT(POWER(G38,2)+POWER(0.7,2))</f>
+        <f t="shared" si="3"/>
         <v>0.70003418815371121</v>
       </c>
       <c r="M38" s="2">
-        <f>SQRT(POWER(H38,2)+POWER(2*0.7,2))</f>
+        <f t="shared" si="4"/>
         <v>1.6788506635338238</v>
       </c>
       <c r="N38" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>23729.998804467989</v>
       </c>
       <c r="O38" s="2">
-        <f>SQRT(POWER(J38,2)+POWER(0.7,2))</f>
+        <f t="shared" si="5"/>
         <v>0.70003418815371121</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>27</v>
       </c>
@@ -2279,23 +2292,23 @@
         <v>4.2385989263663999E-3</v>
       </c>
       <c r="L39" s="2">
-        <f>SQRT(POWER(G39,2)+POWER(0.7,2))</f>
+        <f t="shared" si="3"/>
         <v>0.7000128325401318</v>
       </c>
       <c r="M39" s="2">
-        <f>SQRT(POWER(H39,2)+POWER(2*0.7,2))</f>
+        <f t="shared" si="4"/>
         <v>1.6873296459614051</v>
       </c>
       <c r="N39" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>35186.839781717477</v>
       </c>
       <c r="O39" s="2">
-        <f>SQRT(POWER(J39,2)+POWER(0.7,2))</f>
+        <f t="shared" si="5"/>
         <v>0.7000128325401318</v>
       </c>
     </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>28</v>
       </c>
@@ -2324,23 +2337,23 @@
         <v>3.7500890662961202E-2</v>
       </c>
       <c r="L40" s="2">
-        <f>SQRT(POWER(G40,2)+POWER(0.7,2))</f>
+        <f t="shared" si="3"/>
         <v>0.70100379228682874</v>
       </c>
       <c r="M40" s="2">
-        <f>SQRT(POWER(H40,2)+POWER(2*0.7,2))</f>
+        <f t="shared" si="4"/>
         <v>1.6316850180978528</v>
       </c>
       <c r="N40" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>28750.140328625075</v>
       </c>
       <c r="O40" s="2">
-        <f>SQRT(POWER(J40,2)+POWER(0.7,2))</f>
+        <f t="shared" si="5"/>
         <v>0.70100379228682874</v>
       </c>
     </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>29</v>
       </c>
@@ -2369,23 +2382,23 @@
         <v>4.0878027593465399E-2</v>
       </c>
       <c r="L41" s="2">
-        <f>SQRT(POWER(G41,2)+POWER(0.7,2))</f>
+        <f t="shared" si="3"/>
         <v>0.70119256494912441</v>
       </c>
       <c r="M41" s="2">
-        <f>SQRT(POWER(H41,2)+POWER(2*0.7,2))</f>
+        <f t="shared" si="4"/>
         <v>1.6274729352099881</v>
       </c>
       <c r="N41" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>28614.327384202323</v>
       </c>
       <c r="O41" s="2">
-        <f>SQRT(POWER(J41,2)+POWER(0.7,2))</f>
+        <f t="shared" si="5"/>
         <v>0.70119256494912441</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>19</v>
       </c>
@@ -2414,23 +2427,23 @@
         <v>7.9660895478164892E-3</v>
       </c>
       <c r="L42" s="2">
-        <f>SQRT(POWER(G42,2)+POWER(0.7,2))</f>
+        <f t="shared" si="3"/>
         <v>0.70004532609159231</v>
       </c>
       <c r="M42" s="2">
-        <f>SQRT(POWER(H42,2)+POWER(2*0.7,2))</f>
+        <f t="shared" si="4"/>
         <v>1.6799904243452848</v>
       </c>
       <c r="N42" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>22109.324950686907</v>
       </c>
       <c r="O42" s="2">
-        <f>SQRT(POWER(J42,2)+POWER(0.7,2))</f>
+        <f t="shared" si="5"/>
         <v>0.70004532609159231</v>
       </c>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
         <v>20</v>
       </c>
@@ -2459,23 +2472,23 @@
         <v>4.45986451877567E-3</v>
       </c>
       <c r="L43" s="2">
-        <f>SQRT(POWER(G43,2)+POWER(0.7,2))</f>
+        <f t="shared" si="3"/>
         <v>0.70001420727834218</v>
       </c>
       <c r="M43" s="2">
-        <f>SQRT(POWER(H43,2)+POWER(2*0.7,2))</f>
+        <f t="shared" si="4"/>
         <v>1.6872933834765962</v>
       </c>
       <c r="N43" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>22425.756330114946</v>
       </c>
       <c r="O43" s="2">
-        <f>SQRT(POWER(J43,2)+POWER(0.7,2))</f>
+        <f t="shared" si="5"/>
         <v>0.70001420727834218</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
         <v>21</v>
       </c>
@@ -2504,23 +2517,23 @@
         <v>4.07572960766708E-2</v>
       </c>
       <c r="L44" s="2">
-        <f>SQRT(POWER(G44,2)+POWER(0.7,2))</f>
+        <f t="shared" si="3"/>
         <v>0.70118553691835472</v>
       </c>
       <c r="M44" s="2">
-        <f>SQRT(POWER(H44,2)+POWER(2*0.7,2))</f>
+        <f t="shared" si="4"/>
         <v>1.6291535584816541</v>
       </c>
       <c r="N44" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>30161.867641507502</v>
       </c>
       <c r="O44" s="2">
-        <f>SQRT(POWER(J44,2)+POWER(0.7,2))</f>
+        <f t="shared" si="5"/>
         <v>0.70118553691835472</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
         <v>9</v>
       </c>
@@ -2549,23 +2562,23 @@
         <v>5.0191214780484798E-3</v>
       </c>
       <c r="L45" s="2">
-        <f>SQRT(POWER(G45,2)+POWER(0.7,2))</f>
+        <f t="shared" si="3"/>
         <v>0.70001799375474005</v>
       </c>
       <c r="M45" s="2">
-        <f>SQRT(POWER(H45,2)+POWER(2*0.7,2))</f>
+        <f t="shared" si="4"/>
         <v>1.6660040390195527</v>
       </c>
       <c r="N45" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>35179.427493190058</v>
       </c>
       <c r="O45" s="2">
-        <f>SQRT(POWER(J45,2)+POWER(0.7,2))</f>
+        <f t="shared" si="5"/>
         <v>0.70001799375474005</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
         <v>8</v>
       </c>
@@ -2594,23 +2607,23 @@
         <v>2.8918656535342199E-2</v>
       </c>
       <c r="L46" s="2">
-        <f>SQRT(POWER(G46,2)+POWER(0.7,2))</f>
+        <f t="shared" si="3"/>
         <v>0.70059709441005324</v>
       </c>
       <c r="M46" s="2">
-        <f>SQRT(POWER(H46,2)+POWER(2*0.7,2))</f>
+        <f t="shared" si="4"/>
         <v>1.6395394490467985</v>
       </c>
       <c r="N46" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>27680.057792089181</v>
       </c>
       <c r="O46" s="2">
-        <f>SQRT(POWER(J46,2)+POWER(0.7,2))</f>
+        <f t="shared" si="5"/>
         <v>0.70059709441005324</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
         <v>11</v>
       </c>
@@ -2639,23 +2652,23 @@
         <v>3.65527297879404E-2</v>
       </c>
       <c r="L47" s="2">
-        <f>SQRT(POWER(G47,2)+POWER(0.7,2))</f>
+        <f t="shared" si="3"/>
         <v>0.70095370892445541</v>
       </c>
       <c r="M47" s="2">
-        <f>SQRT(POWER(H47,2)+POWER(2*0.7,2))</f>
+        <f t="shared" si="4"/>
         <v>1.6027686884454651</v>
       </c>
       <c r="N47" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>47654.327182158835</v>
       </c>
       <c r="O47" s="2">
-        <f>SQRT(POWER(J47,2)+POWER(0.7,2))</f>
+        <f t="shared" si="5"/>
         <v>0.70095370892445541</v>
       </c>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
         <v>10</v>
       </c>
@@ -2684,23 +2697,23 @@
         <v>2.2555144079334701E-2</v>
       </c>
       <c r="L48" s="2">
-        <f>SQRT(POWER(G48,2)+POWER(0.7,2))</f>
+        <f t="shared" si="3"/>
         <v>0.70036328753329113</v>
       </c>
       <c r="M48" s="2">
-        <f>SQRT(POWER(H48,2)+POWER(2*0.7,2))</f>
+        <f t="shared" si="4"/>
         <v>1.6492645398204602</v>
       </c>
       <c r="N48" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>25964.745861451342</v>
       </c>
       <c r="O48" s="2">
-        <f>SQRT(POWER(J48,2)+POWER(0.7,2))</f>
+        <f t="shared" si="5"/>
         <v>0.70036328753329113</v>
       </c>
     </row>
-    <row r="49" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
         <v>15</v>
       </c>
@@ -2729,15 +2742,15 @@
         <v>5.8546780490175499E-3</v>
       </c>
       <c r="L49" s="2">
-        <f>SQRT(POWER(G49,2)+POWER(0.7,2))</f>
+        <f t="shared" si="3"/>
         <v>0.70002448332544598</v>
       </c>
       <c r="M49" s="2">
-        <f>SQRT(POWER(H49,2)+POWER(2*0.7,2))</f>
+        <f t="shared" si="4"/>
         <v>1.6871761174215596</v>
       </c>
       <c r="N49" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>17187.836446013789</v>
       </c>
       <c r="O49" s="2">
@@ -2745,7 +2758,7 @@
         <v>0.71423964712051113</v>
       </c>
     </row>
-    <row r="50" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
         <v>14</v>
       </c>
@@ -2774,15 +2787,15 @@
         <v>7.8516345879454205E-2</v>
       </c>
       <c r="L50" s="2">
-        <f>SQRT(POWER(G50,2)+POWER(0.7,2))</f>
+        <f t="shared" si="3"/>
         <v>0.70438967664941121</v>
       </c>
       <c r="M50" s="2">
-        <f>SQRT(POWER(H50,2)+POWER(2*0.7,2))</f>
+        <f t="shared" si="4"/>
         <v>1.62181632155064</v>
       </c>
       <c r="N50" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3619.5984906510221</v>
       </c>
       <c r="O50" s="2">
@@ -2790,7 +2803,7 @@
         <v>0.70169334760224633</v>
       </c>
     </row>
-    <row r="51" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
         <v>12</v>
       </c>
@@ -2819,15 +2832,15 @@
         <v>0.14190938488638599</v>
       </c>
       <c r="L51" s="2">
-        <f>SQRT(POWER(G51,2)+POWER(0.7,2))</f>
+        <f t="shared" si="3"/>
         <v>0.71423964712051113</v>
       </c>
       <c r="M51" s="2">
-        <f>SQRT(POWER(H51,2)+POWER(2*0.7,2))</f>
+        <f t="shared" si="4"/>
         <v>1.4801447039893896</v>
       </c>
       <c r="N51" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>383.04246983062035</v>
       </c>
       <c r="O51" s="2">
@@ -2835,7 +2848,7 @@
         <v>0.70438967664941121</v>
       </c>
     </row>
-    <row r="52" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
         <v>13</v>
       </c>
@@ -2864,15 +2877,15 @@
         <v>4.8719134528919801E-2</v>
       </c>
       <c r="L52" s="2">
-        <f>SQRT(POWER(G52,2)+POWER(0.7,2))</f>
+        <f t="shared" si="3"/>
         <v>0.70169334760224633</v>
       </c>
       <c r="M52" s="2">
-        <f>SQRT(POWER(H52,2)+POWER(2*0.7,2))</f>
+        <f t="shared" si="4"/>
         <v>1.6186502658816508</v>
       </c>
       <c r="N52" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>28504.218645483732</v>
       </c>
       <c r="O52" s="2">
@@ -2880,13 +2893,13 @@
         <v>0.70002448332544598</v>
       </c>
     </row>
-    <row r="53" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:15" x14ac:dyDescent="0.3">
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
       <c r="K53" s="2"/>
     </row>
-    <row r="54" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:15" x14ac:dyDescent="0.3">
       <c r="H54" s="2"/>
       <c r="I54" s="2">
         <f>E33*3*0.7/C33</f>
@@ -2895,121 +2908,121 @@
       <c r="J54" s="2"/>
       <c r="K54" s="2"/>
     </row>
-    <row r="55" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:15" x14ac:dyDescent="0.3">
       <c r="I55" s="2">
-        <f t="shared" ref="I55:I74" si="4">E34*3*0.7/C34</f>
+        <f t="shared" ref="I55:I72" si="7">E34*3*0.7/C34</f>
         <v>21297.693157295998</v>
       </c>
     </row>
-    <row r="56" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:15" x14ac:dyDescent="0.3">
       <c r="I56" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>18216.159129692285</v>
       </c>
     </row>
-    <row r="57" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:15" x14ac:dyDescent="0.3">
       <c r="I57" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>30582.158417739884</v>
       </c>
     </row>
-    <row r="58" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:15" x14ac:dyDescent="0.3">
       <c r="I58" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>29598.730556397397</v>
       </c>
     </row>
-    <row r="59" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:15" x14ac:dyDescent="0.3">
       <c r="I59" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>23725.133125310771</v>
       </c>
     </row>
-    <row r="60" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:15" x14ac:dyDescent="0.3">
       <c r="I60" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>35185.321160380285</v>
       </c>
     </row>
-    <row r="61" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:15" x14ac:dyDescent="0.3">
       <c r="I61" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>28711.16319678706</v>
       </c>
     </row>
-    <row r="62" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:15" x14ac:dyDescent="0.3">
       <c r="I62" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>28571.536664970772</v>
       </c>
     </row>
-    <row r="63" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:15" x14ac:dyDescent="0.3">
       <c r="I63" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>22106.254336155704</v>
       </c>
     </row>
-    <row r="64" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:15" x14ac:dyDescent="0.3">
       <c r="I64" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>22423.319870457519</v>
       </c>
     </row>
-    <row r="65" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I65" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>30120.662875982758</v>
       </c>
     </row>
-    <row r="66" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I66" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>35178.051305465568</v>
       </c>
     </row>
-    <row r="67" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I67" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>27649.917905080052</v>
       </c>
     </row>
-    <row r="68" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I68" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>47641.177759274011</v>
       </c>
     </row>
-    <row r="69" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I69" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>25940.051730847994</v>
       </c>
     </row>
-    <row r="70" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I70" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>17184.396645790537</v>
       </c>
     </row>
-    <row r="71" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I71" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>3605.07200738762</v>
       </c>
     </row>
-    <row r="72" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I72" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>367.87527986286398</v>
       </c>
     </row>
-    <row r="73" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I73" s="2">
         <f>E52*3*0.7/C52</f>
         <v>28451.702475049242</v>
       </c>
     </row>
-    <row r="74" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I74" s="2"/>
     </row>
   </sheetData>
